--- a/Data/Mobilitet_i_Telemark/Buss_og_ferge/Punktlighet/RTI_HIST_DETAIL_REGION_LINJE_RAWT_082025.xlsx
+++ b/Data/Mobilitet_i_Telemark/Buss_og_ferge/Punktlighet/RTI_HIST_DETAIL_REGION_LINJE_RAWT_082025.xlsx
@@ -133,13 +133,13 @@
         </is>
       </c>
       <c r="D3" s="1" t="n">
-        <v>779240.0</v>
+        <v>784164.0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>354321.0</v>
+        <v>356269.0</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>424919.0</v>
+        <v>427895.0</v>
       </c>
     </row>
     <row r="4">
@@ -413,13 +413,13 @@
         <v>8.0</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>196996.0</v>
+        <v>197878.0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>100770.0</v>
+        <v>101157.0</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>96226.0</v>
+        <v>96721.0</v>
       </c>
     </row>
     <row r="18">
@@ -433,13 +433,13 @@
         <v>8.0</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>68382.0</v>
+        <v>68809.0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>32172.0</v>
+        <v>32511.0</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>36210.0</v>
+        <v>36298.0</v>
       </c>
     </row>
     <row r="19">
@@ -453,13 +453,13 @@
         <v>8.0</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>76423.0</v>
+        <v>76595.0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>36763.0</v>
+        <v>36832.0</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>39660.0</v>
+        <v>39763.0</v>
       </c>
     </row>
     <row r="20">
@@ -473,13 +473,13 @@
         <v>8.0</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>23753.0</v>
+        <v>23863.0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>14780.0</v>
+        <v>14860.0</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>8973.0</v>
+        <v>9003.0</v>
       </c>
     </row>
     <row r="21">
@@ -513,13 +513,13 @@
         <v>8.0</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>13952.0</v>
+        <v>13976.0</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>4790.0</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>9162.0</v>
+        <v>9186.0</v>
       </c>
     </row>
     <row r="23">
@@ -673,13 +673,13 @@
         <v>8.0</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>8359.0</v>
+        <v>8557.0</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>4288.0</v>
+        <v>4441.0</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>4071.0</v>
+        <v>4116.0</v>
       </c>
     </row>
     <row r="31">
@@ -1055,13 +1055,13 @@
         <v>8.0</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>1492.0</v>
+        <v>1591.0</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>690.0</v>
+        <v>709.0</v>
       </c>
       <c r="F49" s="3" t="n">
-        <v>802.0</v>
+        <v>882.0</v>
       </c>
     </row>
     <row r="50">
@@ -1095,13 +1095,13 @@
         <v>8.0</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>1569.0</v>
+        <v>1617.0</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>546.0</v>
+        <v>566.0</v>
       </c>
       <c r="F51" s="3" t="n">
-        <v>1023.0</v>
+        <v>1051.0</v>
       </c>
     </row>
     <row r="52">
@@ -1115,13 +1115,13 @@
         <v>8.0</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>4953.0</v>
+        <v>5132.0</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>2196.0</v>
+        <v>2245.0</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>2757.0</v>
+        <v>2887.0</v>
       </c>
     </row>
     <row r="53">
@@ -1257,13 +1257,13 @@
         <v>8.0</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>51226.0</v>
+        <v>51844.0</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>27856.0</v>
+        <v>27952.0</v>
       </c>
       <c r="F59" s="3" t="n">
-        <v>23370.0</v>
+        <v>23892.0</v>
       </c>
     </row>
     <row r="60">
@@ -1277,13 +1277,13 @@
         <v>8.0</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>26124.0</v>
+        <v>26752.0</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>15664.0</v>
+        <v>15906.0</v>
       </c>
       <c r="F60" s="3" t="n">
-        <v>10460.0</v>
+        <v>10846.0</v>
       </c>
     </row>
     <row r="61">
@@ -1479,13 +1479,13 @@
         <v>8.0</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>17968.0</v>
+        <v>18229.0</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>5606.0</v>
+        <v>5644.0</v>
       </c>
       <c r="F70" s="3" t="n">
-        <v>12362.0</v>
+        <v>12585.0</v>
       </c>
     </row>
     <row r="71">
@@ -1759,13 +1759,13 @@
         <v>8.0</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>7395.0</v>
+        <v>7513.0</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>3838.0</v>
+        <v>3897.0</v>
       </c>
       <c r="F84" s="3" t="n">
-        <v>3557.0</v>
+        <v>3616.0</v>
       </c>
     </row>
     <row r="85">
@@ -1779,13 +1779,13 @@
         <v>8.0</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>730.0</v>
+        <v>804.0</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>266.0</v>
+        <v>283.0</v>
       </c>
       <c r="F85" s="3" t="n">
-        <v>464.0</v>
+        <v>521.0</v>
       </c>
     </row>
     <row r="86">
@@ -1879,13 +1879,13 @@
         <v>8.0</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>17162.0</v>
+        <v>17691.0</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>3788.0</v>
+        <v>3850.0</v>
       </c>
       <c r="F90" s="3" t="n">
-        <v>13374.0</v>
+        <v>13841.0</v>
       </c>
     </row>
     <row r="91">
@@ -2521,13 +2521,13 @@
         <v>8.0</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>2977.0</v>
+        <v>3267.0</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>1206.0</v>
+        <v>1365.0</v>
       </c>
       <c r="F122" s="3" t="n">
-        <v>1771.0</v>
+        <v>1902.0</v>
       </c>
     </row>
     <row r="123">
@@ -2541,13 +2541,13 @@
         <v>8.0</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>621.0</v>
+        <v>776.0</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>83.0</v>
+        <v>223.0</v>
       </c>
       <c r="F123" s="3" t="n">
-        <v>538.0</v>
+        <v>553.0</v>
       </c>
     </row>
     <row r="124">
@@ -2561,13 +2561,13 @@
         <v>8.0</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>1150.0</v>
+        <v>1262.0</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>354.0</v>
+        <v>373.0</v>
       </c>
       <c r="F124" s="3" t="n">
-        <v>796.0</v>
+        <v>889.0</v>
       </c>
     </row>
   </sheetData>
